--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H2">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I2">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J2">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.988077</v>
+        <v>15.1475985</v>
       </c>
       <c r="N2">
-        <v>11.976154</v>
+        <v>30.295197</v>
       </c>
       <c r="O2">
-        <v>0.06823235290823237</v>
+        <v>0.08823257810727629</v>
       </c>
       <c r="P2">
-        <v>0.05108261766692988</v>
+        <v>0.06486470581090355</v>
       </c>
       <c r="Q2">
-        <v>9.8157246812855</v>
+        <v>10.98139543476075</v>
       </c>
       <c r="R2">
-        <v>39.262898725142</v>
+        <v>43.925581739043</v>
       </c>
       <c r="S2">
-        <v>0.0008684494273987837</v>
+        <v>0.0008086466718608013</v>
       </c>
       <c r="T2">
-        <v>0.0004369036059864852</v>
+        <v>0.0003988724075958653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H3">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I3">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J3">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>27.807472</v>
       </c>
       <c r="O3">
-        <v>0.105619285511848</v>
+        <v>0.05399150554472157</v>
       </c>
       <c r="P3">
-        <v>0.1186089006921469</v>
+        <v>0.05953826577278695</v>
       </c>
       <c r="Q3">
-        <v>15.19410929610934</v>
+        <v>6.719763665794667</v>
       </c>
       <c r="R3">
-        <v>91.16465577665602</v>
+        <v>40.318581994768</v>
       </c>
       <c r="S3">
-        <v>0.00134430375203969</v>
+        <v>0.0004948291459239654</v>
       </c>
       <c r="T3">
-        <v>0.00101444794298472</v>
+        <v>0.0003661185403677888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H4">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I4">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J4">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.34141799999999</v>
+        <v>20.03934733333334</v>
       </c>
       <c r="N4">
-        <v>64.02425399999998</v>
+        <v>60.118042</v>
       </c>
       <c r="O4">
-        <v>0.2431790981542326</v>
+        <v>0.1167263100356913</v>
       </c>
       <c r="P4">
-        <v>0.2730865425154357</v>
+        <v>0.1287180640633413</v>
       </c>
       <c r="Q4">
-        <v>34.98309781190699</v>
+        <v>14.52771522309967</v>
       </c>
       <c r="R4">
-        <v>209.8985868714419</v>
+        <v>87.166291338598</v>
       </c>
       <c r="S4">
-        <v>0.003095140934556802</v>
+        <v>0.001069790140487459</v>
       </c>
       <c r="T4">
-        <v>0.002335676999744212</v>
+        <v>0.0007915257376438038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H5">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I5">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J5">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.845418</v>
+        <v>32.834505</v>
       </c>
       <c r="N5">
-        <v>45.690836</v>
+        <v>65.66901</v>
       </c>
       <c r="O5">
-        <v>0.2603167299472075</v>
+        <v>0.1912562593355147</v>
       </c>
       <c r="P5">
-        <v>0.1948879002616697</v>
+        <v>0.1406031792611642</v>
       </c>
       <c r="Q5">
-        <v>37.44847190790701</v>
+        <v>23.8036863275475</v>
       </c>
       <c r="R5">
-        <v>149.793887631628</v>
+        <v>95.21474531019</v>
       </c>
       <c r="S5">
-        <v>0.003313265707970333</v>
+        <v>0.001752852981312307</v>
       </c>
       <c r="T5">
-        <v>0.001666853232593462</v>
+        <v>0.0008646108531044361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H6">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I6">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J6">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.950870666666667</v>
+        <v>60.42835733333334</v>
       </c>
       <c r="N6">
-        <v>23.852612</v>
+        <v>181.285072</v>
       </c>
       <c r="O6">
-        <v>0.09059780180777784</v>
+        <v>0.3519864721993876</v>
       </c>
       <c r="P6">
-        <v>0.1017399959247037</v>
+        <v>0.3881474302077808</v>
       </c>
       <c r="Q6">
-        <v>13.03315863181267</v>
+        <v>43.80811171819467</v>
       </c>
       <c r="R6">
-        <v>78.19895179087601</v>
+        <v>262.848670309168</v>
       </c>
       <c r="S6">
-        <v>0.001153112940563131</v>
+        <v>0.003225936444223501</v>
       </c>
       <c r="T6">
-        <v>0.0008701701894445002</v>
+        <v>0.002386834227545369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H7">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I7">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J7">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.36514266666667</v>
+        <v>33.959102</v>
       </c>
       <c r="N7">
-        <v>61.095428</v>
+        <v>101.877306</v>
       </c>
       <c r="O7">
-        <v>0.2320547316707018</v>
+        <v>0.1978068747774086</v>
       </c>
       <c r="P7">
-        <v>0.2605940429391141</v>
+        <v>0.2181283548840234</v>
       </c>
       <c r="Q7">
-        <v>33.38277605834067</v>
+        <v>24.618973606369</v>
       </c>
       <c r="R7">
-        <v>200.296656350044</v>
+        <v>147.713841638214</v>
       </c>
       <c r="S7">
-        <v>0.002953551947939415</v>
+        <v>0.001812889007566544</v>
       </c>
       <c r="T7">
-        <v>0.002228830123801654</v>
+        <v>0.001341336262761411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>22.927531</v>
       </c>
       <c r="I8">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J8">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.988077</v>
+        <v>15.1475985</v>
       </c>
       <c r="N8">
-        <v>11.976154</v>
+        <v>30.295197</v>
       </c>
       <c r="O8">
-        <v>0.06823235290823237</v>
+        <v>0.08823257810727629</v>
       </c>
       <c r="P8">
-        <v>0.05108261766692988</v>
+        <v>0.06486470581090355</v>
       </c>
       <c r="Q8">
-        <v>45.76394034929567</v>
+        <v>115.7656780614345</v>
       </c>
       <c r="R8">
-        <v>274.583642095774</v>
+        <v>694.5940683686071</v>
       </c>
       <c r="S8">
-        <v>0.004048979477555289</v>
+        <v>0.008524739031231101</v>
       </c>
       <c r="T8">
-        <v>0.003055469343116164</v>
+        <v>0.006307358887081857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>22.927531</v>
       </c>
       <c r="I9">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J9">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>27.807472</v>
       </c>
       <c r="O9">
-        <v>0.105619285511848</v>
+        <v>0.05399150554472157</v>
       </c>
       <c r="P9">
-        <v>0.1186089006921469</v>
+        <v>0.05953826577278695</v>
       </c>
       <c r="Q9">
         <v>70.83963070129245</v>
@@ -1013,10 +1013,10 @@
         <v>637.5566763116321</v>
       </c>
       <c r="S9">
-        <v>0.006267559321113904</v>
+        <v>0.005216480177111155</v>
       </c>
       <c r="T9">
-        <v>0.007094504479949169</v>
+        <v>0.005789422846350195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>22.927531</v>
       </c>
       <c r="I10">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J10">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.34141799999999</v>
+        <v>20.03934733333334</v>
       </c>
       <c r="N10">
-        <v>64.02425399999998</v>
+        <v>60.118042</v>
       </c>
       <c r="O10">
-        <v>0.2431790981542326</v>
+        <v>0.1167263100356913</v>
       </c>
       <c r="P10">
-        <v>0.2730865425154357</v>
+        <v>0.1287180640633413</v>
       </c>
       <c r="Q10">
-        <v>163.102007592986</v>
+        <v>153.1509190682558</v>
       </c>
       <c r="R10">
-        <v>1467.918068336874</v>
+        <v>1378.358271614302</v>
       </c>
       <c r="S10">
-        <v>0.01443050306532949</v>
+        <v>0.01127770889708118</v>
       </c>
       <c r="T10">
-        <v>0.01633447142654331</v>
+        <v>0.0125163756645207</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>22.927531</v>
       </c>
       <c r="I11">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J11">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.845418</v>
+        <v>32.834505</v>
       </c>
       <c r="N11">
-        <v>45.690836</v>
+        <v>65.66901</v>
       </c>
       <c r="O11">
-        <v>0.2603167299472075</v>
+        <v>0.1912562593355147</v>
       </c>
       <c r="P11">
-        <v>0.1948879002616697</v>
+        <v>0.1406031792611642</v>
       </c>
       <c r="Q11">
-        <v>174.5963431343194</v>
+        <v>250.938043752385</v>
       </c>
       <c r="R11">
-        <v>1047.578058805916</v>
+        <v>1505.62826251431</v>
       </c>
       <c r="S11">
-        <v>0.01544746813345456</v>
+        <v>0.01847854538425036</v>
       </c>
       <c r="T11">
-        <v>0.01165707694301095</v>
+        <v>0.01367206867244888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>22.927531</v>
       </c>
       <c r="I12">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J12">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.950870666666667</v>
+        <v>60.42835733333334</v>
       </c>
       <c r="N12">
-        <v>23.852612</v>
+        <v>181.285072</v>
       </c>
       <c r="O12">
-        <v>0.09059780180777784</v>
+        <v>0.3519864721993876</v>
       </c>
       <c r="P12">
-        <v>0.1017399959247037</v>
+        <v>0.3881474302077808</v>
       </c>
       <c r="Q12">
-        <v>60.7646112289969</v>
+        <v>461.8243453463592</v>
       </c>
       <c r="R12">
-        <v>546.881501060972</v>
+        <v>4156.419108117233</v>
       </c>
       <c r="S12">
-        <v>0.005376168702912416</v>
+        <v>0.03400776541262609</v>
       </c>
       <c r="T12">
-        <v>0.006085503302583179</v>
+        <v>0.03774294684317366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>22.927531</v>
       </c>
       <c r="I13">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J13">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.36514266666667</v>
+        <v>33.959102</v>
       </c>
       <c r="N13">
-        <v>61.095428</v>
+        <v>101.877306</v>
       </c>
       <c r="O13">
-        <v>0.2320547316707018</v>
+        <v>0.1978068747774086</v>
       </c>
       <c r="P13">
-        <v>0.2605940429391141</v>
+        <v>0.2181283548840234</v>
       </c>
       <c r="Q13">
-        <v>155.6408132698076</v>
+        <v>259.5327879457207</v>
       </c>
       <c r="R13">
-        <v>1400.767319428268</v>
+        <v>2335.795091511486</v>
       </c>
       <c r="S13">
-        <v>0.01377037147565386</v>
+        <v>0.01911144412000081</v>
       </c>
       <c r="T13">
-        <v>0.01558724171871545</v>
+        <v>0.02121051503283038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H14">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I14">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J14">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.988077</v>
+        <v>15.1475985</v>
       </c>
       <c r="N14">
-        <v>11.976154</v>
+        <v>30.295197</v>
       </c>
       <c r="O14">
-        <v>0.06823235290823237</v>
+        <v>0.08823257810727629</v>
       </c>
       <c r="P14">
-        <v>0.05108261766692988</v>
+        <v>0.06486470581090355</v>
       </c>
       <c r="Q14">
-        <v>252.647663335522</v>
+        <v>357.0624586740765</v>
       </c>
       <c r="R14">
-        <v>1515.885980013132</v>
+        <v>2142.374752044459</v>
       </c>
       <c r="S14">
-        <v>0.02235308402401522</v>
+        <v>0.02629332224384264</v>
       </c>
       <c r="T14">
-        <v>0.01686824132798919</v>
+        <v>0.01945413450406328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H15">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I15">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J15">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>27.807472</v>
       </c>
       <c r="O15">
-        <v>0.105619285511848</v>
+        <v>0.05399150554472157</v>
       </c>
       <c r="P15">
-        <v>0.1186089006921469</v>
+        <v>0.05953826577278695</v>
       </c>
       <c r="Q15">
-        <v>391.0823026083307</v>
+        <v>218.4945757095982</v>
       </c>
       <c r="R15">
-        <v>3519.740723474976</v>
+        <v>1966.451181386384</v>
       </c>
       <c r="S15">
-        <v>0.03460113367009423</v>
+        <v>0.0160894771995845</v>
       </c>
       <c r="T15">
-        <v>0.03916642591747754</v>
+        <v>0.01785663583920493</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H16">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I16">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J16">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.34141799999999</v>
+        <v>20.03934733333334</v>
       </c>
       <c r="N16">
-        <v>64.02425399999998</v>
+        <v>60.118042</v>
       </c>
       <c r="O16">
-        <v>0.2431790981542326</v>
+        <v>0.1167263100356913</v>
       </c>
       <c r="P16">
-        <v>0.2730865425154357</v>
+        <v>0.1287180640633413</v>
       </c>
       <c r="Q16">
-        <v>900.4325411925478</v>
+        <v>472.3718171605749</v>
       </c>
       <c r="R16">
-        <v>8103.89287073293</v>
+        <v>4251.346354445174</v>
       </c>
       <c r="S16">
-        <v>0.07966606136588267</v>
+        <v>0.0347844588692803</v>
       </c>
       <c r="T16">
-        <v>0.0901772444907169</v>
+        <v>0.03860494702143464</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H17">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I17">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J17">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.845418</v>
+        <v>32.834505</v>
       </c>
       <c r="N17">
-        <v>45.690836</v>
+        <v>65.66901</v>
       </c>
       <c r="O17">
-        <v>0.2603167299472075</v>
+        <v>0.1912562593355147</v>
       </c>
       <c r="P17">
-        <v>0.1948879002616697</v>
+        <v>0.1406031792611642</v>
       </c>
       <c r="Q17">
-        <v>963.8889873365481</v>
+        <v>773.9820331682449</v>
       </c>
       <c r="R17">
-        <v>5783.333924019288</v>
+        <v>4643.89219900947</v>
       </c>
       <c r="S17">
-        <v>0.08528039103668</v>
+        <v>0.05699439555927378</v>
       </c>
       <c r="T17">
-        <v>0.06435488789853373</v>
+        <v>0.04216951463589019</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H18">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I18">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J18">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.950870666666667</v>
+        <v>60.42835733333334</v>
       </c>
       <c r="N18">
-        <v>23.852612</v>
+        <v>181.285072</v>
       </c>
       <c r="O18">
-        <v>0.09059780180777784</v>
+        <v>0.3519864721993876</v>
       </c>
       <c r="P18">
-        <v>0.1017399959247037</v>
+        <v>0.3881474302077808</v>
       </c>
       <c r="Q18">
-        <v>335.4614336816774</v>
+        <v>1424.430271443731</v>
       </c>
       <c r="R18">
-        <v>3019.152903135096</v>
+        <v>12819.87244299358</v>
       </c>
       <c r="S18">
-        <v>0.02968005923706023</v>
+        <v>0.1048920244374978</v>
       </c>
       <c r="T18">
-        <v>0.03359606226831176</v>
+        <v>0.1164126503044953</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H19">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I19">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J19">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.36514266666667</v>
+        <v>33.959102</v>
       </c>
       <c r="N19">
-        <v>61.095428</v>
+        <v>101.877306</v>
       </c>
       <c r="O19">
-        <v>0.2320547316707018</v>
+        <v>0.1978068747774086</v>
       </c>
       <c r="P19">
-        <v>0.2605940429391141</v>
+        <v>0.2181283548840234</v>
       </c>
       <c r="Q19">
-        <v>859.2417412514694</v>
+        <v>800.4912761903313</v>
       </c>
       <c r="R19">
-        <v>7733.175671263223</v>
+        <v>7204.421485712982</v>
       </c>
       <c r="S19">
-        <v>0.07602169197040341</v>
+        <v>0.05894647999796938</v>
       </c>
       <c r="T19">
-        <v>0.08605203503067747</v>
+        <v>0.06542076005762937</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H20">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I20">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J20">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.988077</v>
+        <v>15.1475985</v>
       </c>
       <c r="N20">
-        <v>11.976154</v>
+        <v>30.295197</v>
       </c>
       <c r="O20">
-        <v>0.06823235290823237</v>
+        <v>0.08823257810727629</v>
       </c>
       <c r="P20">
-        <v>0.05108261766692988</v>
+        <v>0.06486470581090355</v>
       </c>
       <c r="Q20">
-        <v>8.488233879232499</v>
+        <v>12.0120304629015</v>
       </c>
       <c r="R20">
-        <v>33.95293551693</v>
+        <v>48.04812185160601</v>
       </c>
       <c r="S20">
-        <v>0.0007509992477785157</v>
+        <v>0.0008845404496926291</v>
       </c>
       <c r="T20">
-        <v>0.0003778162194548888</v>
+        <v>0.0004363077114667972</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H21">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I21">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J21">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>27.807472</v>
       </c>
       <c r="O21">
-        <v>0.105619285511848</v>
+        <v>0.05399150554472157</v>
       </c>
       <c r="P21">
-        <v>0.1186089006921469</v>
+        <v>0.05953826577278695</v>
       </c>
       <c r="Q21">
-        <v>13.13923907604</v>
+        <v>7.350432496176</v>
       </c>
       <c r="R21">
-        <v>78.83543445624001</v>
+        <v>44.10259497705601</v>
       </c>
       <c r="S21">
-        <v>0.001162498442300266</v>
+        <v>0.0005412702611505314</v>
       </c>
       <c r="T21">
-        <v>0.0008772527427116984</v>
+        <v>0.0004004798011380169</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H22">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I22">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J22">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.34141799999999</v>
+        <v>20.03934733333334</v>
       </c>
       <c r="N22">
-        <v>64.02425399999998</v>
+        <v>60.118042</v>
       </c>
       <c r="O22">
-        <v>0.2431790981542326</v>
+        <v>0.1167263100356913</v>
       </c>
       <c r="P22">
-        <v>0.2730865425154357</v>
+        <v>0.1287180640633413</v>
       </c>
       <c r="Q22">
-        <v>30.25194019690499</v>
+        <v>15.891182395986</v>
       </c>
       <c r="R22">
-        <v>181.51164118143</v>
+        <v>95.347094375916</v>
       </c>
       <c r="S22">
-        <v>0.00267655022881751</v>
+        <v>0.001170192971630021</v>
       </c>
       <c r="T22">
-        <v>0.002019797140192047</v>
+        <v>0.0008658126673638995</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H23">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I23">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J23">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.845418</v>
+        <v>32.834505</v>
       </c>
       <c r="N23">
-        <v>45.690836</v>
+        <v>65.66901</v>
       </c>
       <c r="O23">
-        <v>0.2603167299472075</v>
+        <v>0.1912562593355147</v>
       </c>
       <c r="P23">
-        <v>0.1948879002616697</v>
+        <v>0.1406031792611642</v>
       </c>
       <c r="Q23">
-        <v>32.38389403690501</v>
+        <v>26.037729630495</v>
       </c>
       <c r="R23">
-        <v>129.53557614762</v>
+        <v>104.15091852198</v>
       </c>
       <c r="S23">
-        <v>0.002865175536851942</v>
+        <v>0.001917363192464791</v>
       </c>
       <c r="T23">
-        <v>0.001441425930332337</v>
+        <v>0.0009457570276697729</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H24">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I24">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J24">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.950870666666667</v>
+        <v>60.42835733333334</v>
       </c>
       <c r="N24">
-        <v>23.852612</v>
+        <v>181.285072</v>
       </c>
       <c r="O24">
-        <v>0.09059780180777784</v>
+        <v>0.3519864721993876</v>
       </c>
       <c r="P24">
-        <v>0.1017399959247037</v>
+        <v>0.3881474302077808</v>
       </c>
       <c r="Q24">
-        <v>11.27053806459</v>
+        <v>47.919626936976</v>
       </c>
       <c r="R24">
-        <v>67.62322838754</v>
+        <v>287.517761621856</v>
       </c>
       <c r="S24">
-        <v>0.0009971645137246787</v>
+        <v>0.003528699705752932</v>
       </c>
       <c r="T24">
-        <v>0.0007524872918271019</v>
+        <v>0.002610845372202517</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H25">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I25">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J25">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.36514266666667</v>
+        <v>33.959102</v>
       </c>
       <c r="N25">
-        <v>61.095428</v>
+        <v>101.877306</v>
       </c>
       <c r="O25">
-        <v>0.2320547316707018</v>
+        <v>0.1978068747774086</v>
       </c>
       <c r="P25">
-        <v>0.2605940429391141</v>
+        <v>0.2181283548840234</v>
       </c>
       <c r="Q25">
-        <v>28.86804794571</v>
+        <v>26.929533926898</v>
       </c>
       <c r="R25">
-        <v>173.20828767426</v>
+        <v>161.577203561388</v>
       </c>
       <c r="S25">
-        <v>0.002554109912676277</v>
+        <v>0.001983033769626113</v>
       </c>
       <c r="T25">
-        <v>0.001927400368510489</v>
+        <v>0.001467224465688822</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H26">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I26">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J26">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.988077</v>
+        <v>15.1475985</v>
       </c>
       <c r="N26">
-        <v>11.976154</v>
+        <v>30.295197</v>
       </c>
       <c r="O26">
-        <v>0.06823235290823237</v>
+        <v>0.08823257810727629</v>
       </c>
       <c r="P26">
-        <v>0.05108261766692988</v>
+        <v>0.06486470581090355</v>
       </c>
       <c r="Q26">
-        <v>3.506925279152667</v>
+        <v>453.5346859688565</v>
       </c>
       <c r="R26">
-        <v>21.041551674916</v>
+        <v>2721.208115813139</v>
       </c>
       <c r="S26">
-        <v>0.0003102763524344892</v>
+        <v>0.03339733247572828</v>
       </c>
       <c r="T26">
-        <v>0.0002341429212009491</v>
+        <v>0.02471031207217981</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H27">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I27">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J27">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>27.807472</v>
       </c>
       <c r="O27">
-        <v>0.105619285511848</v>
+        <v>0.05399150554472157</v>
       </c>
       <c r="P27">
-        <v>0.1186089006921469</v>
+        <v>0.05953826577278695</v>
       </c>
       <c r="Q27">
-        <v>5.428494351143113</v>
+        <v>277.528108522896</v>
       </c>
       <c r="R27">
-        <v>48.85644916028801</v>
+        <v>2497.752976706065</v>
       </c>
       <c r="S27">
-        <v>0.000480287799827568</v>
+        <v>0.0204365813651034</v>
       </c>
       <c r="T27">
-        <v>0.0005436572313026034</v>
+        <v>0.02268119633149776</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H28">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I28">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J28">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>21.34141799999999</v>
+        <v>20.03934733333334</v>
       </c>
       <c r="N28">
-        <v>64.02425399999998</v>
+        <v>60.118042</v>
       </c>
       <c r="O28">
-        <v>0.2431790981542326</v>
+        <v>0.1167263100356913</v>
       </c>
       <c r="P28">
-        <v>0.2730865425154357</v>
+        <v>0.1287180640633413</v>
       </c>
       <c r="Q28">
-        <v>12.498629906924</v>
+        <v>599.9986796484061</v>
       </c>
       <c r="R28">
-        <v>112.487669162316</v>
+        <v>5399.988116835654</v>
       </c>
       <c r="S28">
-        <v>0.001105820338118523</v>
+        <v>0.04418263036797102</v>
       </c>
       <c r="T28">
-        <v>0.001251722870236267</v>
+        <v>0.04903534969547856</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H29">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I29">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J29">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.845418</v>
+        <v>32.834505</v>
       </c>
       <c r="N29">
-        <v>45.690836</v>
+        <v>65.66901</v>
       </c>
       <c r="O29">
-        <v>0.2603167299472075</v>
+        <v>0.1912562593355147</v>
       </c>
       <c r="P29">
-        <v>0.1948879002616697</v>
+        <v>0.1406031792611642</v>
       </c>
       <c r="Q29">
-        <v>13.37944951225734</v>
+        <v>983.098866405645</v>
       </c>
       <c r="R29">
-        <v>80.27669707354401</v>
+        <v>5898.59319843387</v>
       </c>
       <c r="S29">
-        <v>0.001183751138617827</v>
+        <v>0.07239331569033616</v>
       </c>
       <c r="T29">
-        <v>0.0008932906017368755</v>
+        <v>0.05356300309158235</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H30">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I30">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J30">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.950870666666667</v>
+        <v>60.42835733333334</v>
       </c>
       <c r="N30">
-        <v>23.852612</v>
+        <v>181.285072</v>
       </c>
       <c r="O30">
-        <v>0.09059780180777784</v>
+        <v>0.3519864721993876</v>
       </c>
       <c r="P30">
-        <v>0.1017399959247037</v>
+        <v>0.3881474302077808</v>
       </c>
       <c r="Q30">
-        <v>4.656438007094223</v>
+        <v>1809.287199339696</v>
       </c>
       <c r="R30">
-        <v>41.907942063848</v>
+        <v>16283.58479405727</v>
       </c>
       <c r="S30">
-        <v>0.0004119798641753786</v>
+        <v>0.1332320724518442</v>
       </c>
       <c r="T30">
-        <v>0.0004663367097611481</v>
+        <v>0.1478653762557671</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H31">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I31">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J31">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.36514266666667</v>
+        <v>33.959102</v>
       </c>
       <c r="N31">
-        <v>61.095428</v>
+        <v>101.877306</v>
       </c>
       <c r="O31">
-        <v>0.2320547316707018</v>
+        <v>0.1978068747774086</v>
       </c>
       <c r="P31">
-        <v>0.2605940429391141</v>
+        <v>0.2181283548840234</v>
       </c>
       <c r="Q31">
-        <v>11.92687295625689</v>
+        <v>1016.770457795958</v>
       </c>
       <c r="R31">
-        <v>107.341856606312</v>
+        <v>9150.934120163622</v>
       </c>
       <c r="S31">
-        <v>0.001055233956313742</v>
+        <v>0.07487282027386515</v>
       </c>
       <c r="T31">
-        <v>0.001194462093919489</v>
+        <v>0.0830963411240718</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H32">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I32">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J32">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.988077</v>
+        <v>15.1475985</v>
       </c>
       <c r="N32">
-        <v>11.976154</v>
+        <v>30.295197</v>
       </c>
       <c r="O32">
-        <v>0.06823235290823237</v>
+        <v>0.08823257810727629</v>
       </c>
       <c r="P32">
-        <v>0.05108261766692988</v>
+        <v>0.06486470581090355</v>
       </c>
       <c r="Q32">
-        <v>450.979576030994</v>
+        <v>248.8392849241411</v>
       </c>
       <c r="R32">
-        <v>2705.877456185964</v>
+        <v>1493.035709544846</v>
       </c>
       <c r="S32">
-        <v>0.03990056437905008</v>
+        <v>0.01832399723492084</v>
       </c>
       <c r="T32">
-        <v>0.0301100442491822</v>
+        <v>0.01355772022851594</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H33">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I33">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J33">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>27.807472</v>
       </c>
       <c r="O33">
-        <v>0.105619285511848</v>
+        <v>0.05399150554472157</v>
       </c>
       <c r="P33">
-        <v>0.1186089006921469</v>
+        <v>0.05953826577278695</v>
       </c>
       <c r="Q33">
-        <v>698.0873232510614</v>
+        <v>152.2703735959218</v>
       </c>
       <c r="R33">
-        <v>6282.785909259553</v>
+        <v>1370.433362363296</v>
       </c>
       <c r="S33">
-        <v>0.06176350252647234</v>
+        <v>0.01121286739584801</v>
       </c>
       <c r="T33">
-        <v>0.0699126123777212</v>
+        <v>0.01244441241422826</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H34">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I34">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J34">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>21.34141799999999</v>
+        <v>20.03934733333334</v>
       </c>
       <c r="N34">
-        <v>64.02425399999998</v>
+        <v>60.118042</v>
       </c>
       <c r="O34">
-        <v>0.2431790981542326</v>
+        <v>0.1167263100356913</v>
       </c>
       <c r="P34">
-        <v>0.2730865425154357</v>
+        <v>0.1287180640633413</v>
       </c>
       <c r="Q34">
-        <v>1607.284549203395</v>
+        <v>329.1991704673952</v>
       </c>
       <c r="R34">
-        <v>14465.56094283056</v>
+        <v>2962.792534206556</v>
       </c>
       <c r="S34">
-        <v>0.1422050222215276</v>
+        <v>0.0242415287892413</v>
       </c>
       <c r="T34">
-        <v>0.160967629588003</v>
+        <v>0.02690405327689968</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H35">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I35">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J35">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>22.845418</v>
+        <v>32.834505</v>
       </c>
       <c r="N35">
-        <v>45.690836</v>
+        <v>65.66901</v>
       </c>
       <c r="O35">
-        <v>0.2603167299472075</v>
+        <v>0.1912562593355147</v>
       </c>
       <c r="P35">
-        <v>0.1948879002616697</v>
+        <v>0.1406031792611642</v>
       </c>
       <c r="Q35">
-        <v>1720.555183891396</v>
+        <v>539.39340582853</v>
       </c>
       <c r="R35">
-        <v>10323.33110334838</v>
+        <v>3236.36043497118</v>
       </c>
       <c r="S35">
-        <v>0.1522266783936328</v>
+        <v>0.0397197865278773</v>
       </c>
       <c r="T35">
-        <v>0.1148743656554623</v>
+        <v>0.02938822498046855</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H36">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I36">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J36">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.950870666666667</v>
+        <v>60.42835733333334</v>
       </c>
       <c r="N36">
-        <v>23.852612</v>
+        <v>181.285072</v>
       </c>
       <c r="O36">
-        <v>0.09059780180777784</v>
+        <v>0.3519864721993876</v>
       </c>
       <c r="P36">
-        <v>0.1017399959247037</v>
+        <v>0.3881474302077808</v>
       </c>
       <c r="Q36">
-        <v>598.8033023507547</v>
+        <v>992.6952597777887</v>
       </c>
       <c r="R36">
-        <v>5389.229721156792</v>
+        <v>8934.257338000098</v>
       </c>
       <c r="S36">
-        <v>0.05297931654934201</v>
+        <v>0.07309997374744311</v>
       </c>
       <c r="T36">
-        <v>0.059969436162776</v>
+        <v>0.08112877720459681</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H37">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I37">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J37">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>20.36514266666667</v>
+        <v>33.959102</v>
       </c>
       <c r="N37">
-        <v>61.095428</v>
+        <v>101.877306</v>
       </c>
       <c r="O37">
-        <v>0.2320547316707018</v>
+        <v>0.1978068747774086</v>
       </c>
       <c r="P37">
-        <v>0.2605940429391141</v>
+        <v>0.2181283548840234</v>
       </c>
       <c r="Q37">
-        <v>1533.758401173539</v>
+        <v>557.8678797398787</v>
       </c>
       <c r="R37">
-        <v>13803.82561056185</v>
+        <v>5020.810917658909</v>
       </c>
       <c r="S37">
-        <v>0.1356997724077151</v>
+        <v>0.04108020760838061</v>
       </c>
       <c r="T37">
-        <v>0.1536040736034895</v>
+        <v>0.04559217794104158</v>
       </c>
     </row>
   </sheetData>
